--- a/Input_Portfolio.xlsx
+++ b/Input_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DBEE29-3191-E442-8F03-FC20A8991461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81235D0-EC66-8A47-AF66-9D6755DB0B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="660" windowWidth="28560" windowHeight="30340" xr2:uid="{761DFFA7-51C0-F941-BEE8-58F40986471E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>Color Code</t>
-  </si>
-  <si>
-    <t>PRDO</t>
-  </si>
-  <si>
-    <t>INVA</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -132,8 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF1EADBB-929F-5F4D-8433-672711B56DB1}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C4" xr:uid="{FF1EADBB-929F-5F4D-8433-672711B56DB1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF1EADBB-929F-5F4D-8433-672711B56DB1}" name="Table1" displayName="Table1" ref="A1:C71" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C71" xr:uid="{FF1EADBB-929F-5F4D-8433-672711B56DB1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CA00BBA4-6C5E-A24C-BAA7-B944E027FC10}" name="Date" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{BF057780-276A-2C41-BA73-82C23BB956BD}" name="Color Code" dataDxfId="0"/>
@@ -460,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F51F72-E9CC-4D41-AF7B-81983D424B40}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,37 +475,16 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -746,6 +713,46 @@
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
